--- a/data/trans_bre/P0902-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P0902-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,94</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,43</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>11,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>130,52%</t>
+          <t>36,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>93,36%</t>
+          <t>73,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,93%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>36,63%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 15,11</t>
+          <t>0,17; 5,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 22,21</t>
+          <t>4,91; 13,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 16,23</t>
+          <t>6,92; 15,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 10,29</t>
+          <t>1,57; 8,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 528,79</t>
+          <t>0,73; 97,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,31; 253,62</t>
+          <t>33,48; 127,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,26; 149,36</t>
+          <t>50,59; 156,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,04; 80,65</t>
+          <t>9,8; 71,58</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>10,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,43</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>10,43</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>65,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>69,8%</t>
+          <t>86,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>118,92%</t>
+          <t>83,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>41,75%</t>
+          <t>115,77%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 4,83</t>
+          <t>2,57; 8,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 12,79</t>
+          <t>6,92; 13,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,02; 16,85</t>
+          <t>4,54; 10,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 9,51</t>
+          <t>6,87; 15,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 72,72</t>
+          <t>28,84; 121,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,1; 131,0</t>
+          <t>50,03; 129,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>61,93; 193,5</t>
+          <t>43,37; 135,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,98; 82,78</t>
+          <t>58,39; 296,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,27</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>8,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,32</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>65,88%</t>
+          <t>89,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>86,55%</t>
+          <t>100,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>83,82%</t>
+          <t>124,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>75,06%</t>
+          <t>1,47%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 8,22</t>
+          <t>4,42; 11,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 13,61</t>
+          <t>5,38; 12,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 10,6</t>
+          <t>5,91; 12,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,27; 11,34</t>
+          <t>-7,64; 5,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,84; 121,19</t>
+          <t>41,55; 149,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,03; 129,58</t>
+          <t>49,09; 177,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>43,37; 135,41</t>
+          <t>71,11; 219,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,86; 121,22</t>
+          <t>-47,29; 40,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>7,98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,98</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>89,37%</t>
+          <t>110,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>100,67%</t>
+          <t>71,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>124,22%</t>
+          <t>75,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>59,14%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 11,48</t>
+          <t>6,16; 12,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 12,44</t>
+          <t>4,94; 11,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 12,42</t>
+          <t>4,19; 10,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 6,28</t>
+          <t>3,13; 10,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,55; 149,91</t>
+          <t>65,58; 180,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,09; 177,78</t>
+          <t>38,86; 116,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>71,11; 219,49</t>
+          <t>35,2; 125,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,69; 49,36</t>
+          <t>24,72; 94,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,89</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,98</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>110,27%</t>
+          <t>78,98%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>71,94%</t>
+          <t>81,79%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>75,03%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>68,41%</t>
+          <t>53,02%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,16; 12,06</t>
+          <t>4,94; 8,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,94; 11,12</t>
+          <t>7,22; 10,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,48</t>
+          <t>6,71; 10,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 11,68</t>
+          <t>3,07; 8,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>65,58; 180,77</t>
+          <t>55,91; 108,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,86; 116,82</t>
+          <t>61,6; 105,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,2; 125,85</t>
+          <t>67,2; 119,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>39,44; 109,69</t>
+          <t>26,97; 88,74</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>6,45</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,99</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,46</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,4</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>78,98%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>81,79%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>91,48%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>49,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>4,94; 8,12</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,22; 10,66</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>6,71; 10,28</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>4,26; 8,14</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>55,91; 108,45</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>61,6; 105,61</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>67,2; 119,04</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>31,95; 67,53</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P0902-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P0902-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 5,97</t>
+          <t>-0,23; 5,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 13,03</t>
+          <t>4,74; 12,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 15,31</t>
+          <t>7,1; 15,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 8,49</t>
+          <t>1,51; 8,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 97,09</t>
+          <t>-2,52; 92,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,48; 127,05</t>
+          <t>34,07; 125,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>50,59; 156,68</t>
+          <t>54,86; 159,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,8; 71,58</t>
+          <t>8,96; 72,33</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 8,22</t>
+          <t>2,76; 8,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,92; 13,61</t>
+          <t>6,97; 13,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 10,6</t>
+          <t>4,62; 10,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 15,83</t>
+          <t>6,97; 15,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,84; 121,19</t>
+          <t>28,96; 121,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,03; 129,58</t>
+          <t>54,17; 128,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,37; 135,41</t>
+          <t>41,98; 141,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>58,39; 296,24</t>
+          <t>58,65; 290,85</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 11,48</t>
+          <t>4,41; 11,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 12,44</t>
+          <t>4,81; 11,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 12,42</t>
+          <t>5,71; 12,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 5,47</t>
+          <t>-8,02; 5,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>41,55; 149,91</t>
+          <t>40,64; 164,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,09; 177,78</t>
+          <t>44,74; 166,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>71,11; 219,49</t>
+          <t>65,8; 205,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,29; 40,76</t>
+          <t>-47,76; 42,23</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,16; 12,06</t>
+          <t>5,99; 11,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 11,12</t>
+          <t>4,55; 10,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,48</t>
+          <t>4,05; 10,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,13; 10,47</t>
+          <t>3,42; 10,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,58; 180,77</t>
+          <t>63,41; 168,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,86; 116,82</t>
+          <t>33,79; 111,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,2; 125,85</t>
+          <t>36,92; 130,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,72; 94,95</t>
+          <t>26,55; 97,06</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,12</t>
+          <t>4,88; 7,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 10,66</t>
+          <t>7,25; 10,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,71; 10,28</t>
+          <t>6,81; 10,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,07; 8,84</t>
+          <t>2,89; 9,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,91; 108,45</t>
+          <t>55,09; 104,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>61,6; 105,61</t>
+          <t>62,05; 107,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>67,2; 119,04</t>
+          <t>68,18; 119,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,97; 88,74</t>
+          <t>26,66; 91,91</t>
         </is>
       </c>
     </row>
